--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Csf1r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.26192380836562</v>
+        <v>1.3027365</v>
       </c>
       <c r="H2">
-        <v>1.26192380836562</v>
+        <v>2.605473</v>
       </c>
       <c r="I2">
-        <v>0.1012061416531514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J2">
-        <v>0.1012061416531514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N2">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O2">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P2">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q2">
-        <v>1.097306964445056</v>
+        <v>1.257927575346</v>
       </c>
       <c r="R2">
-        <v>1.097306964445056</v>
+        <v>5.031710301383999</v>
       </c>
       <c r="S2">
-        <v>0.0002076022926577888</v>
+        <v>0.0001603221204118421</v>
       </c>
       <c r="T2">
-        <v>0.0002076022926577888</v>
+        <v>9.319746544281486E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.26192380836562</v>
+        <v>1.3027365</v>
       </c>
       <c r="H3">
-        <v>1.26192380836562</v>
+        <v>2.605473</v>
       </c>
       <c r="I3">
-        <v>0.1012061416531514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J3">
-        <v>0.1012061416531514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N3">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O3">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P3">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q3">
-        <v>1.43553554933557</v>
+        <v>1.4856680620665</v>
       </c>
       <c r="R3">
-        <v>1.43553554933557</v>
+        <v>8.914008372399001</v>
       </c>
       <c r="S3">
-        <v>0.0002715926180096208</v>
+        <v>0.0001893475098303169</v>
       </c>
       <c r="T3">
-        <v>0.0002715926180096208</v>
+        <v>0.0001651054884886978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.26192380836562</v>
+        <v>1.3027365</v>
       </c>
       <c r="H4">
-        <v>1.26192380836562</v>
+        <v>2.605473</v>
       </c>
       <c r="I4">
-        <v>0.1012061416531514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J4">
-        <v>0.1012061416531514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N4">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O4">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P4">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q4">
-        <v>204.265652072878</v>
+        <v>236.6722457462025</v>
       </c>
       <c r="R4">
-        <v>204.265652072878</v>
+        <v>1420.033474477215</v>
       </c>
       <c r="S4">
-        <v>0.0386455377169813</v>
+        <v>0.0301637367876502</v>
       </c>
       <c r="T4">
-        <v>0.0386455377169813</v>
+        <v>0.02630189592370386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.26192380836562</v>
+        <v>1.3027365</v>
       </c>
       <c r="H5">
-        <v>1.26192380836562</v>
+        <v>2.605473</v>
       </c>
       <c r="I5">
-        <v>0.1012061416531514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J5">
-        <v>0.1012061416531514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N5">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O5">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P5">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q5">
-        <v>322.8068140869907</v>
+        <v>333.9300983458635</v>
       </c>
       <c r="R5">
-        <v>322.8068140869907</v>
+        <v>2003.580590075181</v>
       </c>
       <c r="S5">
-        <v>0.0610726413496407</v>
+        <v>0.04255919218673484</v>
       </c>
       <c r="T5">
-        <v>0.0610726413496407</v>
+        <v>0.03711037035539695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.26192380836562</v>
+        <v>1.3027365</v>
       </c>
       <c r="H6">
-        <v>1.26192380836562</v>
+        <v>2.605473</v>
       </c>
       <c r="I6">
-        <v>0.1012061416531514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J6">
-        <v>0.1012061416531514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N6">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O6">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P6">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q6">
-        <v>3.185779871592064</v>
+        <v>3.5670241133865</v>
       </c>
       <c r="R6">
-        <v>3.185779871592064</v>
+        <v>21.402144680319</v>
       </c>
       <c r="S6">
-        <v>0.0006027257883850464</v>
+        <v>0.0004546150991729376</v>
       </c>
       <c r="T6">
-        <v>0.0006027257883850464</v>
+        <v>0.0003964110649807325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.26192380836562</v>
+        <v>1.3027365</v>
       </c>
       <c r="H7">
-        <v>1.26192380836562</v>
+        <v>2.605473</v>
       </c>
       <c r="I7">
-        <v>0.1012061416531514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J7">
-        <v>0.1012061416531514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N7">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O7">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P7">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q7">
-        <v>2.146183384011853</v>
+        <v>2.51490871262475</v>
       </c>
       <c r="R7">
-        <v>2.146183384011853</v>
+        <v>10.059634850499</v>
       </c>
       <c r="S7">
-        <v>0.0004060418874769856</v>
+        <v>0.0003205236178555945</v>
       </c>
       <c r="T7">
-        <v>0.0004060418874769856</v>
+        <v>0.0001863248110863702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.42806665996765</v>
+        <v>1.560702</v>
       </c>
       <c r="H8">
-        <v>1.42806665996765</v>
+        <v>4.682106</v>
       </c>
       <c r="I8">
-        <v>0.1145307788954514</v>
+        <v>0.08847093125385122</v>
       </c>
       <c r="J8">
-        <v>0.1145307788954514</v>
+        <v>0.1154649406733999</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N8">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O8">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P8">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q8">
-        <v>1.241776628102316</v>
+        <v>1.507020094008</v>
       </c>
       <c r="R8">
-        <v>1.241776628102316</v>
+        <v>9.042120564048</v>
       </c>
       <c r="S8">
-        <v>0.0002349348753958513</v>
+        <v>0.000192068813586633</v>
       </c>
       <c r="T8">
-        <v>0.0002349348753958513</v>
+        <v>0.0001674783857420883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.42806665996765</v>
+        <v>1.560702</v>
       </c>
       <c r="H9">
-        <v>1.42806665996765</v>
+        <v>4.682106</v>
       </c>
       <c r="I9">
-        <v>0.1145307788954514</v>
+        <v>0.08847093125385122</v>
       </c>
       <c r="J9">
-        <v>0.1145307788954514</v>
+        <v>0.1154649406733999</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N9">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O9">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P9">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q9">
-        <v>1.624535842508259</v>
+        <v>1.779857335542</v>
       </c>
       <c r="R9">
-        <v>1.624535842508259</v>
+        <v>16.018716019878</v>
       </c>
       <c r="S9">
-        <v>0.0003073500636898164</v>
+        <v>0.0002268417575520417</v>
       </c>
       <c r="T9">
-        <v>0.0003073500636898164</v>
+        <v>0.0002966990631973016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.42806665996765</v>
+        <v>1.560702</v>
       </c>
       <c r="H10">
-        <v>1.42806665996765</v>
+        <v>4.682106</v>
       </c>
       <c r="I10">
-        <v>0.1145307788954514</v>
+        <v>0.08847093125385122</v>
       </c>
       <c r="J10">
-        <v>0.1145307788954514</v>
+        <v>0.1154649406733999</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N10">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O10">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P10">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q10">
-        <v>231.1589380975627</v>
+        <v>283.53765115247</v>
       </c>
       <c r="R10">
-        <v>231.1589380975627</v>
+        <v>2551.83886037223</v>
       </c>
       <c r="S10">
-        <v>0.04373354683086657</v>
+        <v>0.03613670479944275</v>
       </c>
       <c r="T10">
-        <v>0.04373354683086657</v>
+        <v>0.04726522390205133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.42806665996765</v>
+        <v>1.560702</v>
       </c>
       <c r="H11">
-        <v>1.42806665996765</v>
+        <v>4.682106</v>
       </c>
       <c r="I11">
-        <v>0.1145307788954514</v>
+        <v>0.08847093125385122</v>
       </c>
       <c r="J11">
-        <v>0.1145307788954514</v>
+        <v>0.1154649406733999</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N11">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O11">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P11">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q11">
-        <v>365.3070381523726</v>
+        <v>400.054325912098</v>
       </c>
       <c r="R11">
-        <v>365.3070381523726</v>
+        <v>3600.488933208881</v>
       </c>
       <c r="S11">
-        <v>0.06911336672579392</v>
+        <v>0.05098668561464383</v>
       </c>
       <c r="T11">
-        <v>0.06911336672579392</v>
+        <v>0.0666883470691219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.42806665996765</v>
+        <v>1.560702</v>
       </c>
       <c r="H12">
-        <v>1.42806665996765</v>
+        <v>4.682106</v>
       </c>
       <c r="I12">
-        <v>0.1145307788954514</v>
+        <v>0.08847093125385122</v>
       </c>
       <c r="J12">
-        <v>0.1145307788954514</v>
+        <v>0.1154649406733999</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N12">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O12">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P12">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q12">
-        <v>3.605214506974822</v>
+        <v>4.273359706902001</v>
       </c>
       <c r="R12">
-        <v>3.605214506974822</v>
+        <v>38.46023736211801</v>
       </c>
       <c r="S12">
-        <v>0.0006820796927590892</v>
+        <v>0.000544637149960412</v>
       </c>
       <c r="T12">
-        <v>0.0006820796927590892</v>
+        <v>0.0007123614889936214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.42806665996765</v>
+        <v>1.560702</v>
       </c>
       <c r="H13">
-        <v>1.42806665996765</v>
+        <v>4.682106</v>
       </c>
       <c r="I13">
-        <v>0.1145307788954514</v>
+        <v>0.08847093125385122</v>
       </c>
       <c r="J13">
-        <v>0.1145307788954514</v>
+        <v>0.1154649406733999</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N13">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O13">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P13">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q13">
-        <v>2.428746423964668</v>
+        <v>3.012906338013</v>
       </c>
       <c r="R13">
-        <v>2.428746423964668</v>
+        <v>18.077438028078</v>
       </c>
       <c r="S13">
-        <v>0.0004595007069461809</v>
+        <v>0.0003839931186655645</v>
       </c>
       <c r="T13">
-        <v>0.0004595007069461809</v>
+        <v>0.0003348307642936083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>9.77885566840042</v>
+        <v>0.1772183333333333</v>
       </c>
       <c r="H14">
-        <v>9.77885566840042</v>
+        <v>0.531655</v>
       </c>
       <c r="I14">
-        <v>0.7842630794513972</v>
+        <v>0.0100459094594967</v>
       </c>
       <c r="J14">
-        <v>0.7842630794513972</v>
+        <v>0.01311108997398103</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N14">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O14">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P14">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q14">
-        <v>8.503212601350533</v>
+        <v>0.17112273154</v>
       </c>
       <c r="R14">
-        <v>8.503212601350533</v>
+        <v>1.02673638924</v>
       </c>
       <c r="S14">
-        <v>0.001608744397142995</v>
+        <v>2.180949023524913E-05</v>
       </c>
       <c r="T14">
-        <v>0.001608744397142995</v>
+        <v>1.901723736534584E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>9.77885566840042</v>
+        <v>0.1772183333333333</v>
       </c>
       <c r="H15">
-        <v>9.77885566840042</v>
+        <v>0.531655</v>
       </c>
       <c r="I15">
-        <v>0.7842630794513972</v>
+        <v>0.0100459094594967</v>
       </c>
       <c r="J15">
-        <v>0.7842630794513972</v>
+        <v>0.01311108997398103</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N15">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O15">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P15">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q15">
-        <v>11.12420167584573</v>
+        <v>0.2021035089183334</v>
       </c>
       <c r="R15">
-        <v>11.12420167584573</v>
+        <v>1.818931580265</v>
       </c>
       <c r="S15">
-        <v>0.002104615979596131</v>
+        <v>2.575797186380033E-05</v>
       </c>
       <c r="T15">
-        <v>0.002104615979596131</v>
+        <v>3.36902967263367E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>9.77885566840042</v>
+        <v>0.1772183333333333</v>
       </c>
       <c r="H16">
-        <v>9.77885566840042</v>
+        <v>0.531655</v>
       </c>
       <c r="I16">
-        <v>0.7842630794513972</v>
+        <v>0.0100459094594967</v>
       </c>
       <c r="J16">
-        <v>0.7842630794513972</v>
+        <v>0.01311108997398103</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N16">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O16">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P16">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q16">
-        <v>1582.888219075137</v>
+        <v>32.19581314978056</v>
       </c>
       <c r="R16">
-        <v>1582.888219075137</v>
+        <v>289.762318348025</v>
       </c>
       <c r="S16">
-        <v>0.2994706439935813</v>
+        <v>0.004103337214097189</v>
       </c>
       <c r="T16">
-        <v>0.2994706439935813</v>
+        <v>0.005366984987876204</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>9.77885566840042</v>
+        <v>0.1772183333333333</v>
       </c>
       <c r="H17">
-        <v>9.77885566840042</v>
+        <v>0.531655</v>
       </c>
       <c r="I17">
-        <v>0.7842630794513972</v>
+        <v>0.0100459094594967</v>
       </c>
       <c r="J17">
-        <v>0.7842630794513972</v>
+        <v>0.01311108997398103</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N17">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O17">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P17">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q17">
-        <v>2501.483229658075</v>
+        <v>45.42632794789277</v>
       </c>
       <c r="R17">
-        <v>2501.483229658075</v>
+        <v>408.8369515310349</v>
       </c>
       <c r="S17">
-        <v>0.4732619680261123</v>
+        <v>0.005789558446659146</v>
       </c>
       <c r="T17">
-        <v>0.4732619680261123</v>
+        <v>0.007572488354820246</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>9.77885566840042</v>
+        <v>0.1772183333333333</v>
       </c>
       <c r="H18">
-        <v>9.77885566840042</v>
+        <v>0.531655</v>
       </c>
       <c r="I18">
-        <v>0.7842630794513972</v>
+        <v>0.0100459094594967</v>
       </c>
       <c r="J18">
-        <v>0.7842630794513972</v>
+        <v>0.01311108997398103</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N18">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O18">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P18">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q18">
-        <v>24.68713352507564</v>
+        <v>0.4852416957183334</v>
       </c>
       <c r="R18">
-        <v>24.68713352507564</v>
+        <v>4.367175261465</v>
       </c>
       <c r="S18">
-        <v>0.004670621517057987</v>
+        <v>6.184376516939232E-05</v>
       </c>
       <c r="T18">
-        <v>0.004670621517057987</v>
+        <v>8.088893062884604E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1772183333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.531655</v>
+      </c>
+      <c r="I19">
+        <v>0.0100459094594967</v>
+      </c>
+      <c r="J19">
+        <v>0.01311108997398103</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.9304815</v>
+      </c>
+      <c r="N19">
+        <v>3.860963</v>
+      </c>
+      <c r="O19">
+        <v>0.004340330922523763</v>
+      </c>
+      <c r="P19">
+        <v>0.00289984788751331</v>
+      </c>
+      <c r="Q19">
+        <v>0.3421167139608333</v>
+      </c>
+      <c r="R19">
+        <v>2.052700283765</v>
+      </c>
+      <c r="S19">
+        <v>4.360257147192753E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.802016656404582E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J20">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.9656039999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.931208</v>
+      </c>
+      <c r="O20">
+        <v>0.002170982161762563</v>
+      </c>
+      <c r="P20">
+        <v>0.001450469595059265</v>
+      </c>
+      <c r="Q20">
+        <v>0.2185783057239999</v>
+      </c>
+      <c r="R20">
+        <v>1.311469834344</v>
+      </c>
+      <c r="S20">
+        <v>2.785767490633219E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.429107743582738E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J21">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.140421</v>
+      </c>
+      <c r="N21">
+        <v>3.421263000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.002564025882141566</v>
+      </c>
+      <c r="P21">
+        <v>0.00256960304545199</v>
+      </c>
+      <c r="Q21">
+        <v>0.2581506393843334</v>
+      </c>
+      <c r="R21">
+        <v>2.323355754459</v>
+      </c>
+      <c r="S21">
+        <v>3.29011452669565E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.303325403650518E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J22">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>181.6731516666667</v>
+      </c>
+      <c r="N22">
+        <v>545.019455</v>
+      </c>
+      <c r="O22">
+        <v>0.408458510465489</v>
+      </c>
+      <c r="P22">
+        <v>0.4093469725649807</v>
+      </c>
+      <c r="Q22">
+        <v>41.12432186159054</v>
+      </c>
+      <c r="R22">
+        <v>370.118896754315</v>
+      </c>
+      <c r="S22">
+        <v>0.005241270332702413</v>
+      </c>
+      <c r="T22">
+        <v>0.006855351565153747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J23">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>256.3297323333333</v>
+      </c>
+      <c r="N23">
+        <v>768.9891969999999</v>
+      </c>
+      <c r="O23">
+        <v>0.5763100364383734</v>
+      </c>
+      <c r="P23">
+        <v>0.5775636022518233</v>
+      </c>
+      <c r="Q23">
+        <v>58.02390897314677</v>
+      </c>
+      <c r="R23">
+        <v>522.2151807583209</v>
+      </c>
+      <c r="S23">
+        <v>0.007395112646767356</v>
+      </c>
+      <c r="T23">
+        <v>0.009672482783647187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J24">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.738101</v>
+      </c>
+      <c r="N24">
+        <v>8.214303000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.006156114129709733</v>
+      </c>
+      <c r="P24">
+        <v>0.006169504655171326</v>
+      </c>
+      <c r="Q24">
+        <v>0.6198084074643333</v>
+      </c>
+      <c r="R24">
+        <v>5.578275667179001</v>
+      </c>
+      <c r="S24">
+        <v>7.899421245013803E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001033209629694726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J25">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.9304815</v>
+      </c>
+      <c r="N25">
+        <v>3.860963</v>
+      </c>
+      <c r="O25">
+        <v>0.004340330922523763</v>
+      </c>
+      <c r="P25">
+        <v>0.00289984788751331</v>
+      </c>
+      <c r="Q25">
+        <v>0.4369921577598333</v>
+      </c>
+      <c r="R25">
+        <v>2.621952946559</v>
+      </c>
+      <c r="S25">
+        <v>5.56943902880358E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.856387877942946E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>3.304048</v>
+      </c>
+      <c r="H26">
+        <v>9.912144</v>
+      </c>
+      <c r="I26">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J26">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9656039999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.931208</v>
+      </c>
+      <c r="O26">
+        <v>0.002170982161762563</v>
+      </c>
+      <c r="P26">
+        <v>0.001450469595059265</v>
+      </c>
+      <c r="Q26">
+        <v>3.190401964992</v>
+      </c>
+      <c r="R26">
+        <v>19.142411789952</v>
+      </c>
+      <c r="S26">
+        <v>0.0004066148306296061</v>
+      </c>
+      <c r="T26">
+        <v>0.0003545562352418177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>3.304048</v>
+      </c>
+      <c r="H27">
+        <v>9.912144</v>
+      </c>
+      <c r="I27">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J27">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.140421</v>
+      </c>
+      <c r="N27">
+        <v>3.421263000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.002564025882141566</v>
+      </c>
+      <c r="P27">
+        <v>0.00256960304545199</v>
+      </c>
+      <c r="Q27">
+        <v>3.768005724208</v>
+      </c>
+      <c r="R27">
+        <v>33.912051517872</v>
+      </c>
+      <c r="S27">
+        <v>0.0004802300857923602</v>
+      </c>
+      <c r="T27">
+        <v>0.0006281198757731571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>9.77885566840042</v>
-      </c>
-      <c r="H19">
-        <v>9.77885566840042</v>
-      </c>
-      <c r="I19">
-        <v>0.7842630794513972</v>
-      </c>
-      <c r="J19">
-        <v>0.7842630794513972</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.70072342702804</v>
-      </c>
-      <c r="N19">
-        <v>1.70072342702804</v>
-      </c>
-      <c r="O19">
-        <v>0.004012028132329674</v>
-      </c>
-      <c r="P19">
-        <v>0.004012028132329674</v>
-      </c>
-      <c r="Q19">
-        <v>16.63112892477454</v>
-      </c>
-      <c r="R19">
-        <v>16.63112892477454</v>
-      </c>
-      <c r="S19">
-        <v>0.003146485537906508</v>
-      </c>
-      <c r="T19">
-        <v>0.003146485537906508</v>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>3.304048</v>
+      </c>
+      <c r="H28">
+        <v>9.912144</v>
+      </c>
+      <c r="I28">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J28">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>181.6731516666667</v>
+      </c>
+      <c r="N28">
+        <v>545.019455</v>
+      </c>
+      <c r="O28">
+        <v>0.408458510465489</v>
+      </c>
+      <c r="P28">
+        <v>0.4093469725649807</v>
+      </c>
+      <c r="Q28">
+        <v>600.2568134179467</v>
+      </c>
+      <c r="R28">
+        <v>5402.31132076152</v>
+      </c>
+      <c r="S28">
+        <v>0.07650237343143609</v>
+      </c>
+      <c r="T28">
+        <v>0.1000617468953874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>3.304048</v>
+      </c>
+      <c r="H29">
+        <v>9.912144</v>
+      </c>
+      <c r="I29">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J29">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>256.3297323333333</v>
+      </c>
+      <c r="N29">
+        <v>768.9891969999999</v>
+      </c>
+      <c r="O29">
+        <v>0.5763100364383734</v>
+      </c>
+      <c r="P29">
+        <v>0.5775636022518233</v>
+      </c>
+      <c r="Q29">
+        <v>846.9257394564852</v>
+      </c>
+      <c r="R29">
+        <v>7622.331655108366</v>
+      </c>
+      <c r="S29">
+        <v>0.1079401811695588</v>
+      </c>
+      <c r="T29">
+        <v>0.1411810196674561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>3.304048</v>
+      </c>
+      <c r="H30">
+        <v>9.912144</v>
+      </c>
+      <c r="I30">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J30">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.738101</v>
+      </c>
+      <c r="N30">
+        <v>8.214303000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.006156114129709733</v>
+      </c>
+      <c r="P30">
+        <v>0.006169504655171326</v>
+      </c>
+      <c r="Q30">
+        <v>9.046817132848</v>
+      </c>
+      <c r="R30">
+        <v>81.42135419563201</v>
+      </c>
+      <c r="S30">
+        <v>0.001153011456416663</v>
+      </c>
+      <c r="T30">
+        <v>0.001508088381373508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>3.304048</v>
+      </c>
+      <c r="H31">
+        <v>9.912144</v>
+      </c>
+      <c r="I31">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J31">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.9304815</v>
+      </c>
+      <c r="N31">
+        <v>3.860963</v>
+      </c>
+      <c r="O31">
+        <v>0.004340330922523763</v>
+      </c>
+      <c r="P31">
+        <v>0.00289984788751331</v>
+      </c>
+      <c r="Q31">
+        <v>6.378403539112</v>
+      </c>
+      <c r="R31">
+        <v>38.270421234672</v>
+      </c>
+      <c r="S31">
+        <v>0.0008129237328719517</v>
+      </c>
+      <c r="T31">
+        <v>0.0007088457098810457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11.069776</v>
+      </c>
+      <c r="H32">
+        <v>22.139552</v>
+      </c>
+      <c r="I32">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J32">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.9656039999999999</v>
+      </c>
+      <c r="N32">
+        <v>1.931208</v>
+      </c>
+      <c r="O32">
+        <v>0.002170982161762563</v>
+      </c>
+      <c r="P32">
+        <v>0.001450469595059265</v>
+      </c>
+      <c r="Q32">
+        <v>10.689019984704</v>
+      </c>
+      <c r="R32">
+        <v>42.756079938816</v>
+      </c>
+      <c r="S32">
+        <v>0.001362309231992901</v>
+      </c>
+      <c r="T32">
+        <v>0.0007919291938313707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>11.069776</v>
+      </c>
+      <c r="H33">
+        <v>22.139552</v>
+      </c>
+      <c r="I33">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J33">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.140421</v>
+      </c>
+      <c r="N33">
+        <v>3.421263000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.002564025882141566</v>
+      </c>
+      <c r="P33">
+        <v>0.00256960304545199</v>
+      </c>
+      <c r="Q33">
+        <v>12.624205015696</v>
+      </c>
+      <c r="R33">
+        <v>75.74523009417602</v>
+      </c>
+      <c r="S33">
+        <v>0.00160894741183609</v>
+      </c>
+      <c r="T33">
+        <v>0.001402955067229992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>11.069776</v>
+      </c>
+      <c r="H34">
+        <v>22.139552</v>
+      </c>
+      <c r="I34">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J34">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>181.6731516666667</v>
+      </c>
+      <c r="N34">
+        <v>545.019455</v>
+      </c>
+      <c r="O34">
+        <v>0.408458510465489</v>
+      </c>
+      <c r="P34">
+        <v>0.4093469725649807</v>
+      </c>
+      <c r="Q34">
+        <v>2011.081094164027</v>
+      </c>
+      <c r="R34">
+        <v>12066.48656498416</v>
+      </c>
+      <c r="S34">
+        <v>0.2563110879001604</v>
+      </c>
+      <c r="T34">
+        <v>0.2234957692908082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11.069776</v>
+      </c>
+      <c r="H35">
+        <v>22.139552</v>
+      </c>
+      <c r="I35">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J35">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>256.3297323333333</v>
+      </c>
+      <c r="N35">
+        <v>768.9891969999999</v>
+      </c>
+      <c r="O35">
+        <v>0.5763100364383734</v>
+      </c>
+      <c r="P35">
+        <v>0.5775636022518233</v>
+      </c>
+      <c r="Q35">
+        <v>2837.512719069957</v>
+      </c>
+      <c r="R35">
+        <v>17025.07631441974</v>
+      </c>
+      <c r="S35">
+        <v>0.3616393063740096</v>
+      </c>
+      <c r="T35">
+        <v>0.315338894021381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>11.069776</v>
+      </c>
+      <c r="H36">
+        <v>22.139552</v>
+      </c>
+      <c r="I36">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J36">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.738101</v>
+      </c>
+      <c r="N36">
+        <v>8.214303000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.006156114129709733</v>
+      </c>
+      <c r="P36">
+        <v>0.006169504655171326</v>
+      </c>
+      <c r="Q36">
+        <v>30.31016473537601</v>
+      </c>
+      <c r="R36">
+        <v>181.860988412256</v>
+      </c>
+      <c r="S36">
+        <v>0.003863012446540191</v>
+      </c>
+      <c r="T36">
+        <v>0.003368433826225146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>11.069776</v>
+      </c>
+      <c r="H37">
+        <v>22.139552</v>
+      </c>
+      <c r="I37">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J37">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.9304815</v>
+      </c>
+      <c r="N37">
+        <v>3.860963</v>
+      </c>
+      <c r="O37">
+        <v>0.004340330922523763</v>
+      </c>
+      <c r="P37">
+        <v>0.00289984788751331</v>
+      </c>
+      <c r="Q37">
+        <v>21.369997777144</v>
+      </c>
+      <c r="R37">
+        <v>85.479991108576</v>
+      </c>
+      <c r="S37">
+        <v>0.00272359349137069</v>
+      </c>
+      <c r="T37">
+        <v>0.001583262556908811</v>
       </c>
     </row>
   </sheetData>
